--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed1/result_data_KNN.xlsx
@@ -480,21 +480,21 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.418000000000001</v>
+        <v>-7.760000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.438</v>
+        <v>-21.352</v>
       </c>
       <c r="B4" t="n">
-        <v>4.836</v>
+        <v>5.059</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.972</v>
+        <v>-7.964000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.25</v>
+        <v>-21.527</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.776</v>
+        <v>-12.775</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.408</v>
+        <v>-20.451</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.834</v>
+        <v>-12.154</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.694</v>
+        <v>-21.204</v>
       </c>
       <c r="B8" t="n">
-        <v>6.328</v>
+        <v>5.958</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.484</v>
+        <v>-13.282</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.718</v>
+        <v>5.52</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.236</v>
+        <v>-12.965</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.604000000000001</v>
+        <v>5.424</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,10 +617,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.15</v>
+        <v>-12.784</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.052</v>
+        <v>-7.645000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.648</v>
+        <v>-13.231</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.892</v>
+        <v>-21.779</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.136</v>
+        <v>-12.598</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.656000000000001</v>
+        <v>-7.343999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>4.612</v>
+        <v>5.534000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.79</v>
+        <v>5.51</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>6.023999999999999</v>
+        <v>7.026999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,21 +709,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.744</v>
+        <v>-21.711</v>
       </c>
       <c r="B20" t="n">
-        <v>7.554</v>
+        <v>6.417999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.610000000000001</v>
+        <v>-7.494999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.632</v>
+        <v>-20.186</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.383999999999999</v>
+        <v>-8.107000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.720000000000001</v>
+        <v>5.69</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.16</v>
+        <v>-21.555</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.718</v>
+        <v>-21.128</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.344</v>
+        <v>-22.172</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.79</v>
+        <v>-12.657</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.786</v>
+        <v>6.06</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.096</v>
+        <v>-21.563</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.302000000000001</v>
+        <v>-7.715999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.626</v>
+        <v>-13.013</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -978,24 +978,24 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>6.104</v>
+        <v>7.043000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.864</v>
+        <v>-7.755</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.146</v>
+        <v>-21.587</v>
       </c>
       <c r="B40" t="n">
-        <v>6.06</v>
+        <v>5.786</v>
       </c>
       <c r="C40" t="n">
-        <v>-10.902</v>
+        <v>-11.26</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>5.814</v>
+        <v>7.362</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>6.438</v>
+        <v>6.286</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.098000000000001</v>
+        <v>5.687</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-11.994</v>
+        <v>-12.179</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.98</v>
+        <v>-21.606</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.412000000000001</v>
+        <v>5.833</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.16</v>
+        <v>5.441</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.18</v>
+        <v>-21.585</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1152,12 +1152,12 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.952</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.206</v>
+        <v>-21.463</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.986000000000001</v>
+        <v>5.467000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.12</v>
+        <v>-21.806</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.548</v>
+        <v>-21.678</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.706</v>
+        <v>-7.688999999999998</v>
       </c>
     </row>
     <row r="60">
@@ -1292,21 +1292,21 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.391999999999999</v>
+        <v>-8.019000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.076</v>
+        <v>-21.502</v>
       </c>
       <c r="B62" t="n">
-        <v>5.282</v>
+        <v>5.951000000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.752</v>
+        <v>-7.915000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.604</v>
+        <v>5.334000000000001</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,13 +1328,13 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.626</v>
+        <v>5.585000000000001</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.483</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.07</v>
+        <v>-21.272</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.989999999999999</v>
+        <v>-7.938999999999998</v>
       </c>
     </row>
     <row r="70">
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.952</v>
+        <v>-11.676</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.364</v>
+        <v>-21.454</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.046</v>
+        <v>-20.935</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.825999999999999</v>
+        <v>6.778</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.07</v>
+        <v>-20.952</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.623999999999999</v>
+        <v>-8.478</v>
       </c>
     </row>
     <row r="79">
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.044</v>
+        <v>5.982000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.058</v>
+        <v>-8.286999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.016</v>
+        <v>6.161</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.006</v>
+        <v>5.403</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.688</v>
+        <v>-13.259</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.814</v>
+        <v>-12.537</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.46</v>
+        <v>-21.492</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.222</v>
       </c>
     </row>
     <row r="93">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.154</v>
+        <v>-11.625</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>6.431999999999999</v>
+        <v>5.912999999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1807,10 +1807,10 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.18</v>
+        <v>-12.089</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.050000000000001</v>
+        <v>-7.737</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.41</v>
+        <v>-21.286</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.282</v>
+        <v>-7.806</v>
       </c>
     </row>
     <row r="101">
